--- a/patient_data/patient_100.xlsx
+++ b/patient_data/patient_100.xlsx
@@ -557,16 +557,16 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -634,16 +634,16 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
